--- a/biology/Botanique/Isatis_(genre)/Isatis_(genre).xlsx
+++ b/biology/Botanique/Isatis_(genre)/Isatis_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isatis est un genre de plante à fleurs de la famille des Brassicaceae, originaire de la région méditerranéenne jusqu'au centre de l'Asie. Le genre comprend le pastel des teinturiers ou guède (Isatis tinctoria). En raison de leur morphologie extrêmement variable, les espèces asiatiques en particulier sont difficiles à déterminer ; la seule caractéristique diagnostique fiable est le fruit mûr.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont généralement des plantes herbacées bisannuelles ou vivaces, souvent bleutées et glabres ou duveteuses  et glauques avec une tige droite ramifiée[2]. Elles présentent des feuilles basales sessiles généralement elliptiques, les inférieures oblancéolées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont généralement des plantes herbacées bisannuelles ou vivaces, souvent bleutées et glabres ou duveteuses  et glauques avec une tige droite ramifiée. Elles présentent des feuilles basales sessiles généralement elliptiques, les inférieures oblancéolées.
 Les fleurs hermaphrodites ont un périanthe double, avec quatre sépales dressés vers le haut et quatre pétales jaunes à blanc cassé ou blanc lilas au moins aussi longs que les sépales, six étamines et des nectaires annulaires. Les fleurs sont groupées en grappes regroupées en panicules corymbiformes.
-Les fruits sont des siliques généralement linéaires, oblongues en coin à suborbiculaire, indéhiscentes, aplaties latéralement, unilatérales, légèrement ailées, glabres ou avec de minuscules poils[3].
+Les fruits sont des siliques généralement linéaires, oblongues en coin à suborbiculaire, indéhiscentes, aplaties latéralement, unilatérales, légèrement ailées, glabres ou avec de minuscules poils.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 oct. 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 oct. 2010) :
 Isatis brevipes
 Isatis buschiana
 Isatis cappadocica
